--- a/visualizaciones/2019_mapa_emisiones/empresas_filtradas.xlsx
+++ b/visualizaciones/2019_mapa_emisiones/empresas_filtradas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,350 +545,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>65154</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3836.9600021277</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>S Q M SALAR S A</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>FAENA SALAR DEL CARMEN</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Minería</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Explotación de otras minas y canteras n.c.p.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Antofagasta</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Antofagasta</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Antofagasta</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>19</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>7385637</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>371447</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-23.63481210810503</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-70.26030314771069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3836.9600021277</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>9</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-7821341.169384191</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-2708971.095556269</v>
-      </c>
-      <c r="U2" t="n">
-        <v>8.25243566593609</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>#9467bd</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>89013</v>
-      </c>
-      <c r="B3" t="n">
-        <v>33831.45558692767</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>COMPANIA MINERA TECK QUEBRADA BLANCA S.A.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MINERA QUEBRADA BLANCA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Minería</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Extracción y procesamiento de cobre</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Tarapacá</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Tamarugal</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Pica</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>19</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>7678772</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>524133</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-20.99153218471507</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-68.76780654874047</v>
-      </c>
-      <c r="P3" t="n">
-        <v>11753.338979888</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>9</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-7655197.207976133</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-2390868.920084178</v>
-      </c>
-      <c r="U3" t="n">
-        <v>10.42914628736193</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>#9467bd</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>245136</v>
-      </c>
-      <c r="B4" t="n">
-        <v>13517.28297493308</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MOLIBDENOS Y METALES S A</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MOLYMETNOS</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Minería</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Extracción de otros minerales metalíferos no ferrosos, excepto cobre</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Metropolitana de Santiago</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Maipo</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>San Bernardo</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>19</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>6277155</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>342350</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-33.6337627923733</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-70.69977515737295</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10223.24519329933</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>9</v>
-      </c>
-      <c r="S4" t="n">
-        <v>-7870262.969717691</v>
-      </c>
-      <c r="T4" t="n">
-        <v>-3979730.692724283</v>
-      </c>
-      <c r="U4" t="n">
-        <v>9.511724366008583</v>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>#9467bd</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>386202</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5069.3358107574</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CORP NACIONAL DEL COBRE DE CHILE</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>DIVISIÓN SALVADOR CENTRAL</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Minería</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Extracción y procesamiento de cobre</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Atacama</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Chañaral</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Diego de Almagro</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>19</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>7096771</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>437506</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-26.24736186555259</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-69.6257637287133</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5069.3358107574</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>9</v>
-      </c>
-      <c r="S5" t="n">
-        <v>-7750704.564373141</v>
-      </c>
-      <c r="T5" t="n">
-        <v>-3029750.166007688</v>
-      </c>
-      <c r="U5" t="n">
-        <v>8.530965084208097</v>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>#9467bd</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
